--- a/files/file1.xlsx
+++ b/files/file1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Studia Wyższe\SPRAWOZDAWCZOŚĆ 2023-2024\DYDAKTYKA\Plany zajęć\zimowy\stacjonarne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\symfony\WSPAGraphParser\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF6B3C9-B2BD-4D36-870B-40453AC4F659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INF st I" sheetId="7" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t>DNI</t>
   </si>
@@ -678,6 +679,87 @@
     </r>
   </si>
   <si>
+    <t>gr.1</t>
+  </si>
+  <si>
+    <t>gr.2</t>
+  </si>
+  <si>
+    <t>gr.3</t>
+  </si>
+  <si>
+    <t>gr.4</t>
+  </si>
+  <si>
+    <t>gr.5</t>
+  </si>
+  <si>
+    <t>gr.6</t>
+  </si>
+  <si>
+    <t>Analiza matematyczna i algebra liniowa - wykład 15h
+dr Kamil Powroźnik
+daty: 5 spotkań
+sala</t>
+  </si>
+  <si>
+    <t>Podstawy programowania - wykład 30h
+dr inż. Sylwester Korga
+daty: 10 spotkań
+sala</t>
+  </si>
+  <si>
+    <t>Sieci komputerowe - wykład 15h
+mgr Zbigniew Reszka
+daty: 5 spotkań
+sala
+Podstawy techniki cyfrowej - wykład 15h
+mgr inż. Jarosław Tatarczak
+daty: 5 spotkań
+sala</t>
+  </si>
+  <si>
+    <t>Język angielski - lektorat 15h
+daty: 5 spotkań
+sala</t>
+  </si>
+  <si>
+    <t>Ekonomia - wykład z elementami języka 
+angielskiego 15h
+prof. Mariya Fleychuk
+daty: 20.10, 17.11, 08.12, 12.01, 26.01
+sala</t>
+  </si>
+  <si>
+    <t>Komunikacja interpersonalna - warsztat 15h
+daty: 3 spotkania
+sala</t>
+  </si>
+  <si>
+    <t>Podstawy programowania - laboratorium 30h
+dr inż. Sylwester Korga
+daty: 10 spotkań
+sala</t>
+  </si>
+  <si>
+    <t>Sieci komputerowe - laboratorium 30h
+mgr Zbigniew Reszka
+daty: 10 spotkań
+sala</t>
+  </si>
+  <si>
+    <t>Analiza matematyczna i algebra liniowa - ćwiczenia 30h
+dr Kamil Powroźnik
+daty: 10 spotkań
+sala</t>
+  </si>
+  <si>
+    <t>Technologie informacyjne - laboratorium 15h
+mgr Karol Gac
+daty: 09.01,16.01, 23.01
+sala</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Wychowanie fizyczne - ćwiczenia 30h
 </t>
@@ -799,6 +881,36 @@
       <t>Xtreme Fitness
 Aleja Unii Lubelskiej 2, 20-108 Lublin</t>
     </r>
+  </si>
+  <si>
+    <t>Technologie informacyjne - laboratorium 15h
+mgrWioletta Montusiewicz
+daty: 12.12, 19.12, 09.01, 16.01, 23.01
+sala</t>
+  </si>
+  <si>
+    <t>Technologie informacyjne - laboratorium 15h
+mgr Karol Gac
+daty: 21.11, 28.11, 05.12
+sala</t>
+  </si>
+  <si>
+    <t>Technologie informacyjne - laboratorium 15h
+mgr Przemysław Sujka
+daty: 5.12, 12.12, 19.12
+sala</t>
+  </si>
+  <si>
+    <t>Technologie informacyjne - laboratorium 15h
+mgr Przemysław Sujka
+daty: 07.11, 14.11, 21.11
+sala</t>
+  </si>
+  <si>
+    <t>Technologie informacyjne - laboratorium 15h
+mgr Przemysław Sujka
+daty: 10.10, 17.10, 24.10
+sala</t>
   </si>
   <si>
     <r>
@@ -821,602 +933,53 @@
     </r>
   </si>
   <si>
-    <t>grupa 1:
-wg nazwisk: A-H</t>
-  </si>
-  <si>
-    <t>grupa 2:
-wg nazwisk: I-K</t>
-  </si>
-  <si>
-    <t>grupa 3:
-wg nazwisk: L-O</t>
-  </si>
-  <si>
-    <t>grupa 4:
-wg nazwisk: P-R</t>
-  </si>
-  <si>
-    <t>grupa 5:
-wg nazwisk: S-T</t>
-  </si>
-  <si>
-    <t>grupa 6:
-wg nazwisk: U-Z</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Podstawy techniki cyfrowej - laboratorium 30h
-mgr inż. Justyna Baran-Tatarczak
-daty: 10.10, 17.10, 24.10, 14.11, 21.11, 28.11, 05.12, 12.12, 19.12, 09.01
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Technologie informacyjne - laboratorium 15h
-mgr Przemysław Sujka
-daty: 10.10, 17.10, 24.10
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Technologie informacyjne - laboratorium 15h
-mgr Przemysław Sujka
-daty: 07.11, 14.11, 21.11
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Technologie informacyjne - laboratorium 15h
-mgr Przemysław Sujka
-daty: 5.12, 12.12, 19.12
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Analiza matematyczna i algebra liniowa - ćwiczenia 30h
-dr Kamil Powroźnik
-daty: 18.10, 25.10, 08.11, 15.11, 22.11, 29.11, 06.12, 13.12, 20.12, 03.01
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Komunikacja interpersonalna - warsztat 15h
+    <t>Algorytmy i struktury danych - ćwiczenia 30h
+dr Marek Łatko
+daty: 05.10, 12.10, 19.10, 09.11, 16.11, 23.11, 30.11, 07.12, 14.12, 21.12
+sala</t>
+  </si>
+  <si>
+    <t>Algorytmy i struktury danych - ćwiczenia 30h
+dr Marek Łatko
+daty: 04.10, 11.10, 18.10, 08.11, 15.11, 22.11, 29.11, 06.12, 13.12, 20.12
+sala</t>
+  </si>
+  <si>
+    <t>Algorytmy i struktury danych - ćwiczenia 30h
+dr Marek Łatko
+daty: 04.10, 11.10, 18.10, 08.11, 15.11, 22.11, 29.11, 06.12, 13.12, 20.12
+sala</t>
+  </si>
+  <si>
+    <t>Sieci komputerowe - laboratorium 30h
+mgr Zbigniew Reszka
+daty: 6 spotkań
+w godz. 17:00-21:15
+sala</t>
+  </si>
+  <si>
+    <t>Komunikacja interpersonalna - warsztat 15h
 daty: 3 spotkania
 zajęcia w godz. 16:05-20:20
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Komunikacja interpersonalna - warsztat 15h
-daty: 3 spotkania
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Technologie informacyjne - laboratorium 15h
-mgrWioletta Montusiewicz
-daty: 12.12, 19.12, 09.01, 16.01, 23.01
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Technologie informacyjne - laboratorium 15h
-mgr Karol Gac
-daty: 21.11, 28.11, 12.12
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Technologie informacyjne - laboratorium 15h
-mgr Karol Gac
-daty: 09.01,16.01, 23.01
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Algorytmy i struktury danych - ćwiczenia 30h
-dr Marek Łatko
-daty: 04.10, 11.10, 18.10, 08.11, 15.11, 22.11, 29.11, 06.12, 13.12, 20.12
-sala 224
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Algorytmy i struktury danych - ćwiczenia 30h
-dr Marek Łatko
-daty: 04.10, 11.10, 18.10, 08.11, 15.11, 22.11, 29.11, 06.12, 13.12, 20.12
-sala 224
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Analiza matematyczna i algebra liniowa - wykład 15h
-dr Kamil Powroźnik
-daty: 16.11, 23.11, 30.11, 07.12, 14.12
 sala</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
-zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Podstawy techniki cyfrowej - laboratorium 30h
+  </si>
+  <si>
+    <t>Sieci komputerowe - laboratorium 30h
+mgr Zbigniew Reszka
+daty: 6 spotkań
+sala</t>
+  </si>
+  <si>
+    <t>Podstawy techniki cyfrowej - laboratorium 30h
 mgr inż. Justyna Baran-Tatarczak
-daty: 12.10, 19.10, 26.10, 16.11, 23.11, 30.11, 07.12, 14.12, 21.12, 11.01
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Analiza matematyczna i algebra liniowa - ćwiczenia 30h
-dr Kamil Powroźnik
-daty: 19.10, 26.10, 09.11, 16.11, 23.11, 30.11, 07.12, 14.12, 21.12, 04.01
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sieci komputerowe - laboratorium 30h
-mgr Zbigniew Reszka
-daty: 30.10, 13.11, 27.11, 11.12, 15.01 +1 termin do ustalenia z prowadzącym
-w godz. 17:00-21:15
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sieci komputerowe - laboratorium 30h
-mgr Zbigniew Reszka
-daty: 23.10, 06.11, 20.11, 04.12, 18.12, 08.01
-w godz. 17:00-21:15
-sala 211
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Język angielski - lektorat 15h
-daty: od listopada
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sieci komputerowe - laboratorium 30h
-mgr Zbigniew Reszka
-daty: 03.10, 31.10, 14.11, 28.11, 12.12, 09.01
-w godz. 17:00-21:15
-sala 211
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sieci komputerowe - laboratorium 30h
-mgr Zbigniew Reszka
-daty: 24.10, 07.11, 21.11, 05.12, 19.12, 02.01
-sala 211
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sieci komputerowe - laboratorium 30h
-mgr Zbigniew Reszka
-daty: 19.10, 26.10, 09.11, 16.11, 23.11, 30.11, 07.12, 14.12, 21.12, 04.01
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sieci komputerowe - wykład 15h
-mgr Zbigniew Reszka
-daty: 20.10, 27.10, 17.11, 24.11, 01.12
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Podstawy programowania - laboratorium 30h
-dr inż. Sylwester Korga
-daty: 12.10, 19.10, 26.10, 09.11, 16.11, 23.11, 30.11, 07.12, 14.12, 21.12
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Algorytmy i struktury danych - ćwiczenia 30h
-dr Marek Łatko
-daty: 05.10, 12.10, 19.10, 09.11, 16.11, 23.11, 30.11, 07.12, 14.12, 21.12
-sala 219
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Podstawy programowania - laboratorium 30h
-dr inż. Sylwester Korga
-daty: 11.10, 18.10, 25.10, 08.11, 15.11, 22.11, 29.11, 06.12, 13.12, 20.12
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ekonomia - wykład z elementami języka 
-angielskiego 15h
-prof. Mariya Fleychuk
-daty: 20.10, 17.11, 08.12, 12.01, 26.01
-sala
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
-Podstawy techniki cyfrowej - wykład 15h
-mgr inż. Jarosław Tatarczak
-daty: 06.10, 13.10, 27.10, 24.11, 01.12
-sala A019
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Podstawy programowania - wykład 30h
-dr inż. Sylwester Korga
-daty: 06.10, 20.10, 17.11, 24.11, 01.12, 08.12, 15.12, 05.01, 19.01, 26.01
-sala A019
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>zajęcia w siedzibie Uczelni</t>
-    </r>
+daty: 10 spotkan
+sala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2174,66 +1737,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2287,7 +1850,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2571,14 +2134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3527,94 +3090,94 @@
         <v>6</v>
       </c>
       <c r="B4" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="G4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>36</v>
-      </c>
       <c r="H4" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="M4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>36</v>
-      </c>
       <c r="N4" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="53" t="s">
+      <c r="S4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="53" t="s">
-        <v>36</v>
-      </c>
       <c r="T4" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="53" t="s">
+      <c r="Y4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="53" t="s">
-        <v>36</v>
-      </c>
       <c r="Z4" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="53" t="s">
+      <c r="AE4" s="53" t="s">
         <v>32</v>
-      </c>
-      <c r="AB4" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC4" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD4" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE4" s="53" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3691,44 +3254,46 @@
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>30</v>
+      <c r="B7" s="47" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
-      <c r="G7" s="31"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="22"/>
       <c r="I7" s="9"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="36" t="s">
+      <c r="K7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="31"/>
+      <c r="O7" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="35"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="30" t="s">
-        <v>54</v>
+      <c r="T7" s="47" t="s">
+        <v>36</v>
       </c>
       <c r="U7" s="50"/>
       <c r="V7" s="50"/>
       <c r="W7" s="50"/>
       <c r="X7" s="50"/>
-      <c r="Y7" s="31"/>
+      <c r="Y7" s="35"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
@@ -3736,34 +3301,34 @@
       <c r="AD7" s="9"/>
       <c r="AE7" s="10"/>
     </row>
-    <row r="8" spans="1:31" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
-      <c r="G8" s="33"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="22"/>
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="36"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="32"/>
+      <c r="T8" s="48"/>
       <c r="U8" s="51"/>
       <c r="V8" s="51"/>
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
-      <c r="Y8" s="33"/>
+      <c r="Y8" s="36"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
@@ -3775,32 +3340,30 @@
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
-      <c r="G9" s="35"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="22"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="37"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="34"/>
+      <c r="T9" s="49"/>
       <c r="U9" s="52"/>
       <c r="V9" s="52"/>
       <c r="W9" s="52"/>
       <c r="X9" s="52"/>
-      <c r="Y9" s="35"/>
+      <c r="Y9" s="37"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
@@ -3820,30 +3383,32 @@
       <c r="G10" s="19"/>
       <c r="H10" s="22"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="30" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="31"/>
-      <c r="T10" s="30" t="s">
-        <v>49</v>
+      <c r="O10" s="35"/>
+      <c r="P10" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="35"/>
+      <c r="T10" s="47" t="s">
+        <v>33</v>
       </c>
       <c r="U10" s="50"/>
       <c r="V10" s="50"/>
       <c r="W10" s="50"/>
       <c r="X10" s="50"/>
-      <c r="Y10" s="31"/>
+      <c r="Y10" s="35"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
@@ -3863,22 +3428,22 @@
       <c r="G11" s="17"/>
       <c r="H11" s="22"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="32"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="48"/>
       <c r="U11" s="51"/>
       <c r="V11" s="51"/>
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
-      <c r="Y11" s="33"/>
+      <c r="Y11" s="36"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
@@ -3890,38 +3455,38 @@
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="31"/>
+      <c r="B12" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="35"/>
       <c r="H12" s="22"/>
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
-      <c r="M12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="34"/>
+      <c r="M12" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="49"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="49"/>
       <c r="U12" s="52"/>
       <c r="V12" s="52"/>
       <c r="W12" s="52"/>
       <c r="X12" s="52"/>
-      <c r="Y12" s="35"/>
+      <c r="Y12" s="37"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -3933,83 +3498,83 @@
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="37"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
-      <c r="R13" s="36" t="s">
-        <v>61</v>
+      <c r="R13" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="S13" s="9"/>
-      <c r="T13" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="U13" s="31"/>
-      <c r="V13" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="W13" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="X13" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="43"/>
+      <c r="T13" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="35"/>
+      <c r="V13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="X13" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="40"/>
     </row>
     <row r="14" spans="1:31" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
-      <c r="M14" s="38"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
-      <c r="R14" s="37"/>
+      <c r="R14" s="31"/>
       <c r="S14" s="9"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="46"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="43"/>
     </row>
     <row r="15" spans="1:31" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -4021,60 +3586,60 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="36" t="s">
+      <c r="H15" s="30" t="s">
         <v>46</v>
       </c>
+      <c r="I15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="K15" s="26"/>
-      <c r="L15" s="36" t="s">
-        <v>37</v>
+      <c r="L15" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="M15" s="26"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
-      <c r="R15" s="38"/>
+      <c r="R15" s="32"/>
       <c r="S15" s="22"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="46"/>
     </row>
-    <row r="16" spans="1:31" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="B16" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="29"/>
-      <c r="L16" s="37"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="26"/>
       <c r="N16" s="19"/>
       <c r="O16" s="9"/>
@@ -4082,50 +3647,50 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="U16" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="V16" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W16" s="31"/>
+      <c r="T16" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="W16" s="35"/>
       <c r="X16" s="26"/>
-      <c r="Y16" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z16" s="30" t="s">
-        <v>63</v>
+      <c r="Y16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z16" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="AA16" s="50"/>
       <c r="AB16" s="50"/>
       <c r="AC16" s="50"/>
       <c r="AD16" s="50"/>
-      <c r="AE16" s="31"/>
+      <c r="AE16" s="35"/>
     </row>
     <row r="17" spans="1:31" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37" t="s">
-        <v>52</v>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="D17" s="51"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="38"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="32"/>
       <c r="M17" s="26"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -4133,35 +3698,35 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="33"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="36"/>
       <c r="X17" s="26"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="32"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="48"/>
       <c r="AA17" s="51"/>
       <c r="AB17" s="51"/>
       <c r="AC17" s="51"/>
       <c r="AD17" s="51"/>
-      <c r="AE17" s="33"/>
+      <c r="AE17" s="36"/>
     </row>
     <row r="18" spans="1:31" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="51"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="36" t="s">
+      <c r="E18" s="36"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
       <c r="N18" s="15"/>
@@ -4170,33 +3735,33 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="35"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="37"/>
       <c r="X18" s="26"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="34"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="49"/>
       <c r="AA18" s="52"/>
       <c r="AB18" s="52"/>
       <c r="AC18" s="52"/>
       <c r="AD18" s="52"/>
-      <c r="AE18" s="35"/>
+      <c r="AE18" s="37"/>
     </row>
     <row r="19" spans="1:31" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="51"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="37"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="31"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="9"/>
@@ -4206,40 +3771,38 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="V19" s="36" t="s">
-        <v>57</v>
+      <c r="U19" s="13"/>
+      <c r="V19" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
-      <c r="Y19" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z19" s="30" t="s">
-        <v>58</v>
+      <c r="Y19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" s="47" t="s">
+        <v>35</v>
       </c>
       <c r="AA19" s="50"/>
       <c r="AB19" s="50"/>
       <c r="AC19" s="50"/>
       <c r="AD19" s="50"/>
-      <c r="AE19" s="31"/>
+      <c r="AE19" s="35"/>
     </row>
     <row r="20" spans="1:31" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="52"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="15"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="37"/>
+      <c r="K20" s="31"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -4249,32 +3812,32 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="31"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="32"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="48"/>
       <c r="AA20" s="51"/>
       <c r="AB20" s="51"/>
       <c r="AC20" s="51"/>
       <c r="AD20" s="51"/>
-      <c r="AE20" s="33"/>
+      <c r="AE20" s="36"/>
     </row>
     <row r="21" spans="1:31" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="28"/>
-      <c r="C21" s="38"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="27"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="38"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="38"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="27"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="38"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -4284,17 +3847,17 @@
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="32"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="34"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="49"/>
       <c r="AA21" s="52"/>
       <c r="AB21" s="52"/>
       <c r="AC21" s="52"/>
       <c r="AD21" s="52"/>
-      <c r="AE21" s="35"/>
+      <c r="AE21" s="37"/>
     </row>
     <row r="22" spans="1:31" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="s">
@@ -4381,8 +3944,6 @@
     <mergeCell ref="T10:Y12"/>
     <mergeCell ref="R13:R15"/>
     <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="U19:U21"/>
-    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B7:G9"/>
     <mergeCell ref="I15:I19"/>
     <mergeCell ref="J15:J19"/>
@@ -4391,10 +3952,17 @@
     <mergeCell ref="F12:G14"/>
     <mergeCell ref="D16:E20"/>
     <mergeCell ref="H15:H17"/>
+    <mergeCell ref="U16:U18"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="M7:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="Z13:AE15"/>
     <mergeCell ref="N10:O12"/>
     <mergeCell ref="P7:Q9"/>
-    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="P10:P12"/>
     <mergeCell ref="W13:W15"/>
     <mergeCell ref="V16:W18"/>
     <mergeCell ref="T13:U15"/>
@@ -4407,11 +3975,6 @@
     <mergeCell ref="F17:F21"/>
     <mergeCell ref="G17:G20"/>
     <mergeCell ref="H18:H21"/>
-    <mergeCell ref="U16:U18"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="M7:M11"/>
-    <mergeCell ref="M12:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="28" orientation="landscape" r:id="rId1"/>
